--- a/biology/Zoologie/Heteropoda_boiei/Heteropoda_boiei.xlsx
+++ b/biology/Zoologie/Heteropoda_boiei/Heteropoda_boiei.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Heteropoda boiei est une espèce d'araignées aranéomorphes de la famille des Sparassidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Heteropoda boiei est une espèce d'araignées aranéomorphes de la famille des Sparassidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Malaisie péninsulaire et au Sarawak et en Indonésie à Java et à Sumatra[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Malaisie péninsulaire et au Sarawak et en Indonésie à Java et à Sumatra,.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Heteropoda boiei est présente en forêt tropicale[3] et notamment dans la partie basse des forêts de Dipterocarpaceae où on la trouve sur les troncs[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Heteropoda boiei est présente en forêt tropicale et notamment dans la partie basse des forêts de Dipterocarpaceae où on la trouve sur les troncs.
 </t>
         </is>
       </c>
@@ -573,10 +589,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Heteropoda boiei est une araignée assez grande avec un mâle variant de 19 à 27 mm et une femelle de 23 à 37 mm[3]. Les yeux sont rapprochés et élevés[3].
-Elle présente une couleur d'ensemble verdâtre avec des marques de couleur rouille[5]. Le céphalothorax, vert pistache radialement rayé de rouge, est aplati, large et rond[5].Les mâchoires supérieures sont petites et épaisses et recouvertes de courts poils jaunâtres[5]. L'opisthosome (abdomen) est allongé, plus étroit que le céphalothorax, de forme conique[3] et orné de bandes rouges[5]. Les pattes sont longues (trois fois plus grandes que le corps) et fortes. Elles sont marquées de taches rouges munies d'épines noires[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Heteropoda boiei est une araignée assez grande avec un mâle variant de 19 à 27 mm et une femelle de 23 à 37 mm. Les yeux sont rapprochés et élevés.
+Elle présente une couleur d'ensemble verdâtre avec des marques de couleur rouille. Le céphalothorax, vert pistache radialement rayé de rouge, est aplati, large et rond.Les mâchoires supérieures sont petites et épaisses et recouvertes de courts poils jaunâtres. L'opisthosome (abdomen) est allongé, plus étroit que le céphalothorax, de forme conique et orné de bandes rouges. Les pattes sont longues (trois fois plus grandes que le corps) et fortes. Elles sont marquées de taches rouges munies d'épines noires.
 </t>
         </is>
       </c>
